--- a/WMT.xlsx
+++ b/WMT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A164F8-4358-43FF-A4E3-EE18C43A9B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2399E6-A0D2-4DE9-9178-3EED6D1428CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="1545" windowWidth="20745" windowHeight="13995" activeTab="1" xr2:uid="{A3984266-D378-4982-874A-17DFE6E9796E}"/>
+    <workbookView xWindow="4635" yWindow="585" windowWidth="23670" windowHeight="14145" xr2:uid="{A3984266-D378-4982-874A-17DFE6E9796E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -154,7 +154,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,12 +163,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -191,16 +196,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -592,85 +598,88 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{356C27BA-5CFA-4D26-9D38-0BB90399B56B}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="9"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+      <c r="D2" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>8016</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <f>D3*D2</f>
-        <v>745488</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+        <v>785568</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>9037</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <f>33401+14398+12825+5923</f>
         <v>66547</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <f>D4+D6-D5</f>
-        <v>802998</v>
-      </c>
-      <c r="E7">
+        <v>843078</v>
+      </c>
+      <c r="E7" s="9">
         <f>D7/D3</f>
-        <v>100.17440119760479</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D8">
+        <v>105.17440119760479</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D8" s="9">
         <f>E7/Sheet2!H15</f>
-        <v>37.352774828250475</v>
+        <v>39.217162056009798</v>
       </c>
     </row>
   </sheetData>
@@ -682,105 +691,109 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE73657D-02CA-4188-B30D-30458BF1F0E1}">
   <dimension ref="A1:DG33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q4" sqref="Q4"/>
+      <selection pane="bottomRight" activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="21.140625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" style="1"/>
+    <col min="5" max="17" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="111" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="112" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="E1" s="4">
+    <row r="1" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="E1" s="2">
         <v>2022</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="2">
         <f>E1+1</f>
         <v>2023</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="2">
         <f t="shared" ref="G1:L1" si="0">F1+1</f>
         <v>2024</v>
       </c>
-      <c r="H1" s="4">
+      <c r="H1" s="2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1" s="2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="J1" s="4">
+      <c r="J1" s="2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="K1" s="4">
+      <c r="K1" s="2">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="L1" s="4">
+      <c r="L1" s="2">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="M1" s="4">
+      <c r="M1" s="2">
         <f>L1+1</f>
         <v>2030</v>
       </c>
-      <c r="N1" s="4">
+      <c r="N1" s="2">
         <f t="shared" ref="N1:R1" si="1">M1+1</f>
         <v>2031</v>
       </c>
-      <c r="O1" s="4">
+      <c r="O1" s="2">
         <f t="shared" si="1"/>
         <v>2032</v>
       </c>
-      <c r="P1" s="4">
+      <c r="P1" s="2">
         <f t="shared" si="1"/>
         <v>2033</v>
       </c>
-      <c r="Q1" s="4">
+      <c r="Q1" s="2">
         <f t="shared" si="1"/>
         <v>2034</v>
       </c>
-      <c r="R1" s="4">
+      <c r="R1" s="2">
         <f t="shared" si="1"/>
         <v>2035</v>
       </c>
     </row>
-    <row r="2" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>605881</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>642637</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>674538</v>
       </c>
     </row>
-    <row r="3" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>5408</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>5488</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>6447</v>
       </c>
     </row>
-    <row r="4" spans="1:103" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:103" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -837,411 +850,411 @@
         <v>1008024.1543651187</v>
       </c>
     </row>
-    <row r="5" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>463721</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>490142</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>511753</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <f>I4*(1-I20)</f>
         <v>530463.10719999997</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <f>J4*(1-J20)</f>
         <v>549832.91404288006</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <f>K4*(1-K20)</f>
         <v>569884.33780024131</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="1">
         <f>L4*(1-L20)</f>
         <v>590639.94711055735</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="1">
         <f t="shared" ref="M5:R5" si="4">M4*(1-M20)</f>
         <v>612122.9766775209</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="1">
         <f t="shared" si="4"/>
         <v>634357.3419839628</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="1">
         <f t="shared" si="4"/>
         <v>657367.65399312542</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="1">
         <f t="shared" si="4"/>
         <v>681179.2338064767</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="1">
         <f t="shared" si="4"/>
         <v>705818.12724450463</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="1">
         <f t="shared" si="4"/>
         <v>731311.11931397649</v>
       </c>
     </row>
-    <row r="6" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <f>F4-F5</f>
         <v>147568</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <f t="shared" ref="G6:L6" si="5">G4-G5</f>
         <v>157983</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <f t="shared" si="5"/>
         <v>169232</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <f t="shared" si="5"/>
         <v>177761.29280000005</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <f t="shared" si="5"/>
         <v>186720.46195711999</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1">
         <f t="shared" si="5"/>
         <v>196131.17323975882</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="1">
         <f t="shared" si="5"/>
         <v>206016.18437104276</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="1">
         <f t="shared" ref="M6" si="6">M4-M5</f>
         <v>216399.40006334323</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="1">
         <f t="shared" ref="N6" si="7">N4-N5</f>
         <v>227305.92982653587</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="1">
         <f t="shared" ref="O6" si="8">O4-O5</f>
         <v>238762.14868979319</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="1">
         <f t="shared" ref="P6" si="9">P4-P5</f>
         <v>250795.76098375872</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="1">
         <f t="shared" ref="Q6" si="10">Q4-Q5</f>
         <v>263435.86733734026</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6" s="1">
         <f t="shared" ref="R6" si="11">R4-R5</f>
         <v>276713.03505114221</v>
       </c>
     </row>
-    <row r="7" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>127140</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>130971</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>139884</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <f>H7*(1+I17)</f>
         <v>145479.36000000002</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <f>I7*(1+J17)</f>
         <v>151298.53440000003</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="1">
         <f>J7*(1+K17)</f>
         <v>157350.47577600004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="1">
         <f>K7*(1+L17)</f>
         <v>163644.49480704006</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="1">
         <f t="shared" ref="M7:R7" si="12">L7*(1+M17)</f>
         <v>170190.27459932165</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="1">
         <f t="shared" si="12"/>
         <v>176997.88558329453</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="1">
         <f t="shared" si="12"/>
         <v>184077.80100662631</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="1">
         <f t="shared" si="12"/>
         <v>191440.91304689136</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="1">
         <f t="shared" si="12"/>
         <v>199098.54956876702</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="1">
         <f t="shared" si="12"/>
         <v>207062.49155151771</v>
       </c>
     </row>
-    <row r="8" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <f>F6-F7</f>
         <v>20428</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <f t="shared" ref="G8:L8" si="13">G6-G7</f>
         <v>27012</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <f t="shared" si="13"/>
         <v>29348</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <f t="shared" si="13"/>
         <v>32281.932800000039</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <f t="shared" si="13"/>
         <v>35421.927557119954</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="1">
         <f t="shared" si="13"/>
         <v>38780.697463758785</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="1">
         <f t="shared" si="13"/>
         <v>42371.689564002707</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="1">
         <f t="shared" ref="M8" si="14">M6-M7</f>
         <v>46209.125464021577</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="1">
         <f t="shared" ref="N8" si="15">N6-N7</f>
         <v>50308.04424324134</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="1">
         <f t="shared" ref="O8" si="16">O6-O7</f>
         <v>54684.347683166881</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="1">
         <f t="shared" ref="P8" si="17">P6-P7</f>
         <v>59354.847936867358</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8" s="1">
         <f t="shared" ref="Q8" si="18">Q6-Q7</f>
         <v>64337.317768573237</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8" s="1">
         <f t="shared" ref="R8" si="19">R6-R7</f>
         <v>69650.543499624502</v>
       </c>
     </row>
-    <row r="9" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>-1874</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>-2137</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <v>-2245</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <f>H26*$U$15</f>
         <v>-2357.9100000000003</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="1">
         <f>I26*$U$15</f>
         <v>-1395.9164495519988</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="1">
         <f>J26*$U$15</f>
         <v>-335.66594344018148</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="1">
         <f t="shared" ref="L9:R9" si="20">K26*$U$16</f>
         <v>1261.8749835116287</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="1">
         <f t="shared" si="20"/>
         <v>3251.5655268782821</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="1">
         <f t="shared" si="20"/>
         <v>5506.9730360633166</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="1">
         <f t="shared" si="20"/>
         <v>8052.1378239996075</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9" s="1">
         <f t="shared" si="20"/>
         <v>10912.9215631264</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9" s="1">
         <f t="shared" si="20"/>
         <v>14117.131852326114</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R9" s="1">
         <f t="shared" si="20"/>
         <v>17694.654755039126</v>
       </c>
     </row>
-    <row r="10" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <f>F8+F9</f>
         <v>18554</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <f>G8+G9</f>
         <v>24875</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <f>H8+H9</f>
         <v>27103</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
         <f t="shared" ref="I10:L10" si="21">I8+I9</f>
         <v>29924.022800000039</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="1">
         <f t="shared" si="21"/>
         <v>34026.011107567952</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="1">
         <f t="shared" si="21"/>
         <v>38445.031520318604</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="1">
         <f t="shared" si="21"/>
         <v>43633.564547514339</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="1">
         <f t="shared" ref="M10" si="22">M8+M9</f>
         <v>49460.690990899857</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="1">
         <f t="shared" ref="N10" si="23">N8+N9</f>
         <v>55815.017279304659</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10" s="1">
         <f t="shared" ref="O10" si="24">O8+O9</f>
         <v>62736.485507166486</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10" s="1">
         <f t="shared" ref="P10" si="25">P8+P9</f>
         <v>70267.769499993752</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q10" s="1">
         <f t="shared" ref="Q10" si="26">Q8+Q9</f>
         <v>78454.449620899351</v>
       </c>
-      <c r="R10" s="2">
+      <c r="R10" s="1">
         <f t="shared" ref="R10" si="27">R8+R9</f>
         <v>87345.198254663628</v>
       </c>
     </row>
-    <row r="11" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>5724</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>5578</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>6152</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <f>I10*I18</f>
         <v>7181.7654720000091</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="1">
         <f>J10*J18</f>
         <v>8166.2426658163085</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="1">
         <f>K10*K18</f>
         <v>9226.8075648764643</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="1">
         <f>L10*L18</f>
         <v>10472.055491403442</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="1">
         <f t="shared" ref="M11:R11" si="28">M10*M18</f>
         <v>11870.565837815966</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="1">
         <f t="shared" si="28"/>
         <v>13395.604147033118</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11" s="1">
         <f t="shared" si="28"/>
         <v>15056.756521719955</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11" s="1">
         <f t="shared" si="28"/>
         <v>16864.264679998501</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q11" s="1">
         <f t="shared" si="28"/>
         <v>18829.067909015845</v>
       </c>
-      <c r="R11" s="2">
+      <c r="R11" s="1">
         <f t="shared" si="28"/>
         <v>20962.847581119269</v>
       </c>
     </row>
-    <row r="12" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>388</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <v>-759</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <v>-721</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="1">
         <v>-721</v>
       </c>
     </row>
-    <row r="13" spans="1:103" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:103" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
@@ -1638,301 +1651,301 @@
         <v>154656.93488254331</v>
       </c>
     </row>
-    <row r="14" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>8202</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <v>8108</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <v>8081</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="1">
         <v>8081</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="1">
         <v>8081</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="1">
         <v>8081</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="1">
         <v>8081</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="1">
         <v>8081</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14" s="1">
         <v>8081</v>
       </c>
-      <c r="O14" s="2">
+      <c r="O14" s="1">
         <v>8081</v>
       </c>
-      <c r="P14" s="2">
+      <c r="P14" s="1">
         <v>8081</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="Q14" s="1">
         <v>8081</v>
       </c>
-      <c r="R14" s="2">
+      <c r="R14" s="1">
         <v>8081</v>
       </c>
     </row>
-    <row r="15" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="4">
         <f>F13/F14</f>
         <v>1.5169470860765666</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="4">
         <f t="shared" ref="G15:H15" si="34">G13/G14</f>
         <v>2.4736063147508633</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="4">
         <f t="shared" si="34"/>
         <v>2.6818463061502289</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="4">
         <f t="shared" ref="I15" si="35">I13/I14</f>
         <v>2.9035091359980236</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="4">
         <f t="shared" ref="J15" si="36">J13/J14</f>
         <v>3.2000703429961197</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="4">
         <f t="shared" ref="K15" si="37">K13/K14</f>
         <v>3.6156693423390842</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="4">
         <f t="shared" ref="L15" si="38">L13/L14</f>
         <v>4.1036392842607219</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="4">
         <f t="shared" ref="M15" si="39">M13/M14</f>
         <v>4.6516675105907552</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N15" s="4">
         <f t="shared" ref="N15" si="40">N13/N14</f>
         <v>5.2492777047731147</v>
       </c>
-      <c r="O15" s="7">
+      <c r="O15" s="4">
         <f t="shared" ref="O15" si="41">O13/O14</f>
         <v>5.9002263315736334</v>
       </c>
-      <c r="P15" s="7">
+      <c r="P15" s="4">
         <f t="shared" ref="P15" si="42">P13/P14</f>
         <v>6.6085267689636495</v>
       </c>
-      <c r="Q15" s="7">
+      <c r="Q15" s="4">
         <f t="shared" ref="Q15" si="43">Q13/Q14</f>
         <v>7.3784657482840625</v>
       </c>
-      <c r="R15" s="7">
+      <c r="R15" s="4">
         <f t="shared" ref="R15" si="44">R13/R14</f>
         <v>8.2146207986071484</v>
       </c>
-      <c r="T15" s="2" t="s">
+      <c r="T15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="U15" s="6">
+      <c r="U15" s="5">
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="T16" s="2" t="s">
+    <row r="16" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="T16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U16" s="6">
+      <c r="U16" s="5">
         <v>0.06</v>
       </c>
     </row>
-    <row r="17" spans="1:111" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:111" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="6">
         <f t="shared" ref="G17:L17" si="45">G4/F4-1</f>
         <v>6.02595499019285E-2</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="6">
         <f t="shared" si="45"/>
         <v>5.0700096432015451E-2</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="6">
         <f t="shared" si="45"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="6">
         <f t="shared" si="45"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="6">
         <f t="shared" si="45"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="6">
         <f t="shared" si="45"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="6">
         <f t="shared" ref="M17:R17" si="46">M4/L4-1</f>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="N17" s="5">
+      <c r="N17" s="6">
         <f t="shared" si="46"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="O17" s="5">
+      <c r="O17" s="6">
         <f t="shared" si="46"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="P17" s="5">
+      <c r="P17" s="6">
         <f t="shared" si="46"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="Q17" s="5">
+      <c r="Q17" s="6">
         <f t="shared" si="46"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="R17" s="5">
+      <c r="R17" s="6">
         <f t="shared" si="46"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="T17" s="2" t="s">
+      <c r="T17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="U17" s="6">
+      <c r="U17" s="5">
         <v>0.01</v>
       </c>
     </row>
-    <row r="18" spans="1:111" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <f>F11/F10</f>
         <v>0.30850490460278107</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <f>G11/G10</f>
         <v>0.22424120603015074</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="5">
         <f>H11/H10</f>
         <v>0.22698594251558868</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="5">
         <v>0.24</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="5">
         <v>0.24</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="5">
         <v>0.24</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="5">
         <v>0.24</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="5">
         <v>0.24</v>
       </c>
-      <c r="N18" s="6">
+      <c r="N18" s="5">
         <v>0.24</v>
       </c>
-      <c r="O18" s="6">
+      <c r="O18" s="5">
         <v>0.24</v>
       </c>
-      <c r="P18" s="6">
+      <c r="P18" s="5">
         <v>0.24</v>
       </c>
-      <c r="Q18" s="6">
+      <c r="Q18" s="5">
         <v>0.24</v>
       </c>
-      <c r="R18" s="6">
+      <c r="R18" s="5">
         <v>0.24</v>
       </c>
-      <c r="T18" s="2" t="s">
+      <c r="T18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U18" s="8">
+      <c r="U18" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:111" x14ac:dyDescent="0.25">
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="T19" s="2" t="s">
+    <row r="19" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="T19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="U19" s="2">
+      <c r="U19" s="1">
         <f>NPV(U18,I24:XFD24)+Sheet1!D5-Sheet1!D6</f>
         <v>688238.88926570932</v>
       </c>
     </row>
-    <row r="20" spans="1:111" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:111" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="6">
         <f>F6/F4</f>
         <v>0.24140463839525986</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="6">
         <f>G6/G4</f>
         <v>0.24375390549662487</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="6">
         <f>H6/H4</f>
         <v>0.24851061330278934</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="6">
         <f>H20*1.01</f>
         <v>0.25099571943581722</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="6">
         <f t="shared" ref="J20:R20" si="47">I20*1.01</f>
         <v>0.25350567663017537</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="6">
         <f t="shared" si="47"/>
         <v>0.25604073339647715</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L20" s="6">
         <f t="shared" si="47"/>
         <v>0.25860114073044194</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M20" s="6">
         <f t="shared" si="47"/>
         <v>0.26118715213774635</v>
       </c>
-      <c r="N20" s="5">
+      <c r="N20" s="6">
         <f t="shared" si="47"/>
         <v>0.26379902365912383</v>
       </c>
-      <c r="O20" s="5">
+      <c r="O20" s="6">
         <f t="shared" si="47"/>
         <v>0.26643701389571506</v>
       </c>
-      <c r="P20" s="5">
+      <c r="P20" s="6">
         <f t="shared" si="47"/>
         <v>0.26910138403467221</v>
       </c>
-      <c r="Q20" s="5">
+      <c r="Q20" s="6">
         <f t="shared" si="47"/>
         <v>0.27179239787501891</v>
       </c>
-      <c r="R20" s="5">
+      <c r="R20" s="6">
         <f t="shared" si="47"/>
         <v>0.27451032185376911</v>
       </c>
-      <c r="T20" s="2" t="s">
+      <c r="T20" s="1" t="s">
         <v>1</v>
       </c>
       <c r="U20" s="3">
@@ -1940,176 +1953,176 @@
         <v>85.858144868476714</v>
       </c>
     </row>
-    <row r="21" spans="1:111" x14ac:dyDescent="0.25">
-      <c r="F21" s="8">
+    <row r="21" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="F21" s="7">
         <f>F22/F4</f>
         <v>4.7180629783948345E-2</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="7">
         <f>G22/G4</f>
         <v>5.512208293153327E-2</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="7">
         <f>H22/H4</f>
         <v>5.3515128820752295E-2</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="7">
         <f>H21*1.06</f>
         <v>5.6726036549997437E-2</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="7">
         <f t="shared" ref="J21:R21" si="48">I21*1.06</f>
         <v>6.0129598742997288E-2</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="7">
         <f t="shared" si="48"/>
         <v>6.3737374667577132E-2</v>
       </c>
-      <c r="L21" s="8">
+      <c r="L21" s="7">
         <f t="shared" si="48"/>
         <v>6.7561617147631758E-2</v>
       </c>
-      <c r="M21" s="8">
+      <c r="M21" s="7">
         <f t="shared" si="48"/>
         <v>7.1615314176489669E-2</v>
       </c>
-      <c r="N21" s="8">
+      <c r="N21" s="7">
         <f t="shared" si="48"/>
         <v>7.5912233027079057E-2</v>
       </c>
-      <c r="O21" s="8">
+      <c r="O21" s="7">
         <f t="shared" si="48"/>
         <v>8.0466967008703802E-2</v>
       </c>
-      <c r="P21" s="8">
+      <c r="P21" s="7">
         <f t="shared" si="48"/>
         <v>8.5294985029226028E-2</v>
       </c>
-      <c r="Q21" s="8">
+      <c r="Q21" s="7">
         <f t="shared" si="48"/>
         <v>9.0412684130979595E-2</v>
       </c>
-      <c r="R21" s="8">
+      <c r="R21" s="7">
         <f t="shared" si="48"/>
         <v>9.5837445178838382E-2</v>
       </c>
-      <c r="T21" s="2" t="s">
+      <c r="T21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U21" s="6">
+      <c r="U21" s="5">
         <f>U20/Sheet1!D2-1</f>
-        <v>-7.6794141199175159E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:111" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+        <v>-0.12389648093391104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <v>28841</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="1">
         <v>35726</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="1">
         <v>36443</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="1">
         <f>I4*I21</f>
         <v>40174.763200000009</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="1">
         <f t="shared" ref="J22:R22" si="49">J4*J21</f>
         <v>44288.658951680009</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="1">
         <f t="shared" si="49"/>
         <v>48823.817628332057</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L22" s="1">
         <f t="shared" si="49"/>
         <v>53823.376553473252</v>
       </c>
-      <c r="M22" s="2">
+      <c r="M22" s="1">
         <f t="shared" si="49"/>
         <v>59334.890312548923</v>
       </c>
-      <c r="N22" s="2">
+      <c r="N22" s="1">
         <f t="shared" si="49"/>
         <v>65410.783080553934</v>
       </c>
-      <c r="O22" s="2">
+      <c r="O22" s="1">
         <f t="shared" si="49"/>
         <v>72108.847268002661</v>
       </c>
-      <c r="P22" s="2">
+      <c r="P22" s="1">
         <f t="shared" si="49"/>
         <v>79492.793228246141</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="Q22" s="1">
         <f t="shared" si="49"/>
         <v>87632.855254818554</v>
       </c>
-      <c r="R22" s="2">
+      <c r="R22" s="1">
         <f t="shared" si="49"/>
         <v>96606.459632911981</v>
       </c>
     </row>
-    <row r="23" spans="1:111" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <v>16857</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="1">
         <v>20606</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="1">
         <v>23783</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="1">
         <f>I4*0.0325</f>
         <v>23017.293000000001</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="1">
         <f>J4*0.03</f>
         <v>22096.601279999999</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23" s="1">
         <f t="shared" ref="K23:R23" si="50">K4*0.03</f>
         <v>22980.465331200005</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L23" s="1">
         <f t="shared" si="50"/>
         <v>23899.683944448003</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M23" s="1">
         <f t="shared" si="50"/>
         <v>24855.671302225925</v>
       </c>
-      <c r="N23" s="2">
+      <c r="N23" s="1">
         <f t="shared" si="50"/>
         <v>25849.89815431496</v>
       </c>
-      <c r="O23" s="2">
+      <c r="O23" s="1">
         <f t="shared" si="50"/>
         <v>26883.894080487556</v>
       </c>
-      <c r="P23" s="2">
+      <c r="P23" s="1">
         <f t="shared" si="50"/>
         <v>27959.249843707061</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="Q23" s="1">
         <f t="shared" si="50"/>
         <v>29077.619837455346</v>
       </c>
-      <c r="R23" s="2">
+      <c r="R23" s="1">
         <f t="shared" si="50"/>
         <v>30240.724630953559</v>
       </c>
     </row>
-    <row r="24" spans="1:111" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:111" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
@@ -2538,138 +2551,138 @@
         <v>167429.38051641165</v>
       </c>
     </row>
-    <row r="25" spans="1:111" x14ac:dyDescent="0.25">
-      <c r="F25" s="6">
+    <row r="25" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="F25" s="5">
         <f>F24/F13</f>
         <v>0.9631891978781546</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="5">
         <f>G24/G13</f>
         <v>0.75388911049062624</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="5">
         <f>H24/H13</f>
         <v>0.58416389811738645</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="5">
         <f t="shared" ref="I25:R25" si="63">I24/I13</f>
         <v>0.73124843495302039</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="5">
         <f t="shared" si="63"/>
         <v>0.85816923386870059</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="5">
         <f t="shared" si="63"/>
         <v>0.88449429152652215</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L25" s="5">
         <f t="shared" si="63"/>
         <v>0.90236221030812858</v>
       </c>
-      <c r="M25" s="6">
+      <c r="M25" s="5">
         <f t="shared" si="63"/>
         <v>0.91724139970026997</v>
       </c>
-      <c r="N25" s="6">
+      <c r="N25" s="5">
         <f t="shared" si="63"/>
         <v>0.93261273565668734</v>
       </c>
-      <c r="O25" s="6">
+      <c r="O25" s="5">
         <f t="shared" si="63"/>
         <v>0.94851531562436697</v>
       </c>
-      <c r="P25" s="6">
+      <c r="P25" s="5">
         <f t="shared" si="63"/>
         <v>0.96498429378822304</v>
       </c>
-      <c r="Q25" s="6">
+      <c r="Q25" s="5">
         <f t="shared" si="63"/>
         <v>0.98205216866046463</v>
       </c>
-      <c r="R25" s="6">
+      <c r="R25" s="5">
         <f t="shared" si="63"/>
         <v>0.99974969745094366</v>
       </c>
     </row>
-    <row r="26" spans="1:111" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="1">
         <f>H28-H32</f>
         <v>-57510</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="1">
         <f>H26+I13</f>
         <v>-34046.742671999971</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="1">
         <f t="shared" ref="J26:L26" si="64">I26+J13</f>
         <v>-8186.9742302483282</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26" s="1">
         <f t="shared" si="64"/>
         <v>21031.249725193811</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L26" s="1">
         <f t="shared" si="64"/>
         <v>54192.758781304707</v>
       </c>
-      <c r="M26" s="2">
+      <c r="M26" s="1">
         <f t="shared" ref="M26:R26" si="65">L26+M13</f>
         <v>91782.883934388607</v>
       </c>
-      <c r="N26" s="2">
+      <c r="N26" s="1">
         <f t="shared" si="65"/>
         <v>134202.29706666013</v>
       </c>
-      <c r="O26" s="2">
+      <c r="O26" s="1">
         <f t="shared" si="65"/>
         <v>181882.02605210667</v>
       </c>
-      <c r="P26" s="2">
+      <c r="P26" s="1">
         <f t="shared" si="65"/>
         <v>235285.53087210192</v>
       </c>
-      <c r="Q26" s="2">
+      <c r="Q26" s="1">
         <f t="shared" si="65"/>
         <v>294910.91258398542</v>
       </c>
-      <c r="R26" s="2">
+      <c r="R26" s="1">
         <f t="shared" si="65"/>
         <v>361293.26325752982</v>
       </c>
     </row>
-    <row r="28" spans="1:111" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="1">
         <v>9037</v>
       </c>
     </row>
-    <row r="29" spans="1:111" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:111" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:111" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="1">
         <f>33401+14398+12825+5923</f>
         <v>66547</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/WMT.xlsx
+++ b/WMT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2399E6-A0D2-4DE9-9178-3EED6D1428CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C918C71-18DD-47E4-9BFE-CAC7FAE277D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4635" yWindow="585" windowWidth="23670" windowHeight="14145" xr2:uid="{A3984266-D378-4982-874A-17DFE6E9796E}"/>
+    <workbookView xWindow="6045" yWindow="780" windowWidth="17745" windowHeight="14640" activeTab="1" xr2:uid="{A3984266-D378-4982-874A-17DFE6E9796E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -196,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -207,6 +207,7 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,7 +599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{356C27BA-5CFA-4D26-9D38-0BB90399B56B}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -616,8 +617,8 @@
       <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
-        <v>98</v>
+      <c r="D2" s="4">
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -637,7 +638,7 @@
       </c>
       <c r="D4" s="1">
         <f>D3*D2</f>
-        <v>785568</v>
+        <v>777552</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -669,17 +670,17 @@
       </c>
       <c r="D7" s="1">
         <f>D4+D6-D5</f>
-        <v>843078</v>
+        <v>835062</v>
       </c>
       <c r="E7" s="9">
         <f>D7/D3</f>
-        <v>105.17440119760479</v>
+        <v>104.17440119760479</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D8" s="9">
         <f>E7/Sheet2!H15</f>
-        <v>39.217162056009798</v>
+        <v>38.844284610457933</v>
       </c>
     </row>
   </sheetData>
@@ -691,11 +692,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE73657D-02CA-4188-B30D-30458BF1F0E1}">
   <dimension ref="A1:DG33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P27" sqref="P27"/>
+      <selection pane="bottomRight" activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1087,43 +1088,43 @@
       </c>
       <c r="I9" s="1">
         <f>H26*$U$15</f>
-        <v>-2357.9100000000003</v>
+        <v>-1150.2</v>
       </c>
       <c r="J9" s="1">
         <f>I26*$U$15</f>
-        <v>-1395.9164495519988</v>
+        <v>-643.8986217599994</v>
       </c>
       <c r="K9" s="1">
         <f>J26*$U$15</f>
-        <v>-335.66594344018148</v>
+        <v>-94.405764581312027</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" ref="L9:R9" si="20">K26*$U$16</f>
-        <v>1261.8749835116287</v>
+        <v>1033.675288531384</v>
       </c>
       <c r="M9" s="1">
         <f t="shared" si="20"/>
-        <v>3251.5655268782821</v>
+        <v>2405.2848178714612</v>
       </c>
       <c r="N9" s="1">
         <f t="shared" si="20"/>
-        <v>5506.9730360633166</v>
+        <v>3941.5001827792812</v>
       </c>
       <c r="O9" s="1">
         <f t="shared" si="20"/>
-        <v>8052.1378239996075</v>
+        <v>5655.7857866415334</v>
       </c>
       <c r="P9" s="1">
         <f t="shared" si="20"/>
-        <v>10912.9215631264</v>
+        <v>7562.5340042874805</v>
       </c>
       <c r="Q9" s="1">
         <f t="shared" si="20"/>
-        <v>14117.131852326114</v>
+        <v>9677.1232736279726</v>
       </c>
       <c r="R9" s="1">
         <f t="shared" si="20"/>
-        <v>17694.654755039126</v>
+        <v>12015.979610561531</v>
       </c>
     </row>
     <row r="10" spans="1:103" x14ac:dyDescent="0.2">
@@ -1144,43 +1145,43 @@
       </c>
       <c r="I10" s="1">
         <f t="shared" ref="I10:L10" si="21">I8+I9</f>
-        <v>29924.022800000039</v>
+        <v>31131.732800000038</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="21"/>
-        <v>34026.011107567952</v>
+        <v>34778.028935359958</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" si="21"/>
-        <v>38445.031520318604</v>
+        <v>38686.291699177469</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="21"/>
-        <v>43633.564547514339</v>
+        <v>43405.36485253409</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" ref="M10" si="22">M8+M9</f>
-        <v>49460.690990899857</v>
+        <v>48614.410281893041</v>
       </c>
       <c r="N10" s="1">
         <f t="shared" ref="N10" si="23">N8+N9</f>
-        <v>55815.017279304659</v>
+        <v>54249.54442602062</v>
       </c>
       <c r="O10" s="1">
         <f t="shared" ref="O10" si="24">O8+O9</f>
-        <v>62736.485507166486</v>
+        <v>60340.133469808417</v>
       </c>
       <c r="P10" s="1">
         <f t="shared" ref="P10" si="25">P8+P9</f>
-        <v>70267.769499993752</v>
+        <v>66917.381941154832</v>
       </c>
       <c r="Q10" s="1">
         <f t="shared" ref="Q10" si="26">Q8+Q9</f>
-        <v>78454.449620899351</v>
+        <v>74014.441042201215</v>
       </c>
       <c r="R10" s="1">
         <f t="shared" ref="R10" si="27">R8+R9</f>
-        <v>87345.198254663628</v>
+        <v>81666.523110186041</v>
       </c>
     </row>
     <row r="11" spans="1:103" x14ac:dyDescent="0.2">
@@ -1198,43 +1199,43 @@
       </c>
       <c r="I11" s="1">
         <f>I10*I18</f>
-        <v>7181.7654720000091</v>
+        <v>6537.6638880000073</v>
       </c>
       <c r="J11" s="1">
         <f>J10*J18</f>
-        <v>8166.2426658163085</v>
+        <v>7303.3860764255905</v>
       </c>
       <c r="K11" s="1">
         <f>K10*K18</f>
-        <v>9226.8075648764643</v>
+        <v>8124.1212568272686</v>
       </c>
       <c r="L11" s="1">
         <f>L10*L18</f>
-        <v>10472.055491403442</v>
+        <v>9115.1266190321585</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" ref="M11:R11" si="28">M10*M18</f>
-        <v>11870.565837815966</v>
+        <v>10209.026159197538</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" si="28"/>
-        <v>13395.604147033118</v>
+        <v>11392.404329464331</v>
       </c>
       <c r="O11" s="1">
         <f t="shared" si="28"/>
-        <v>15056.756521719955</v>
+        <v>12671.428028659768</v>
       </c>
       <c r="P11" s="1">
         <f t="shared" si="28"/>
-        <v>16864.264679998501</v>
+        <v>14052.650207642515</v>
       </c>
       <c r="Q11" s="1">
         <f t="shared" si="28"/>
-        <v>18829.067909015845</v>
+        <v>15543.032618862255</v>
       </c>
       <c r="R11" s="1">
         <f t="shared" si="28"/>
-        <v>20962.847581119269</v>
+        <v>17149.969853139068</v>
       </c>
     </row>
     <row r="12" spans="1:103" x14ac:dyDescent="0.2">
@@ -1272,383 +1273,383 @@
       </c>
       <c r="I13" s="3">
         <f t="shared" si="29"/>
-        <v>23463.257328000029</v>
+        <v>25315.068912000032</v>
       </c>
       <c r="J13" s="3">
         <f t="shared" si="29"/>
-        <v>25859.768441751643</v>
+        <v>27474.642858934367</v>
       </c>
       <c r="K13" s="3">
         <f t="shared" si="29"/>
-        <v>29218.223955442139</v>
+        <v>30562.170442350201</v>
       </c>
       <c r="L13" s="3">
         <f t="shared" si="29"/>
-        <v>33161.509056110895</v>
+        <v>34290.238233501936</v>
       </c>
       <c r="M13" s="3">
         <f t="shared" ref="M13:R13" si="30">M10-M11-M12</f>
-        <v>37590.125153083893</v>
+        <v>38405.384122695505</v>
       </c>
       <c r="N13" s="3">
         <f t="shared" si="30"/>
-        <v>42419.41313227154</v>
+        <v>42857.140096556293</v>
       </c>
       <c r="O13" s="3">
         <f t="shared" si="30"/>
-        <v>47679.728985446534</v>
+        <v>47668.705441148646</v>
       </c>
       <c r="P13" s="3">
         <f t="shared" si="30"/>
-        <v>53403.504819995251</v>
+        <v>52864.731733512315</v>
       </c>
       <c r="Q13" s="3">
         <f t="shared" si="30"/>
-        <v>59625.381711883507</v>
+        <v>58471.408423338959</v>
       </c>
       <c r="R13" s="3">
         <f t="shared" si="30"/>
-        <v>66382.350673544366</v>
+        <v>64516.553257046973</v>
       </c>
       <c r="S13" s="3">
         <f t="shared" ref="S13:AX13" si="31">R13*(1+$U$17)</f>
-        <v>67046.174180279806</v>
+        <v>65161.718789617444</v>
       </c>
       <c r="T13" s="3">
         <f t="shared" si="31"/>
-        <v>67716.635922082598</v>
+        <v>65813.33597751362</v>
       </c>
       <c r="U13" s="3">
         <f t="shared" si="31"/>
-        <v>68393.802281303419</v>
+        <v>66471.469337288756</v>
       </c>
       <c r="V13" s="3">
         <f t="shared" si="31"/>
-        <v>69077.740304116451</v>
+        <v>67136.18403066165</v>
       </c>
       <c r="W13" s="3">
         <f t="shared" si="31"/>
-        <v>69768.517707157618</v>
+        <v>67807.545870968272</v>
       </c>
       <c r="X13" s="3">
         <f t="shared" si="31"/>
-        <v>70466.202884229191</v>
+        <v>68485.621329677961</v>
       </c>
       <c r="Y13" s="3">
         <f t="shared" si="31"/>
-        <v>71170.864913071477</v>
+        <v>69170.477542974739</v>
       </c>
       <c r="Z13" s="3">
         <f t="shared" si="31"/>
-        <v>71882.573562202189</v>
+        <v>69862.182318404492</v>
       </c>
       <c r="AA13" s="3">
         <f t="shared" si="31"/>
-        <v>72601.399297824217</v>
+        <v>70560.804141588538</v>
       </c>
       <c r="AB13" s="3">
         <f t="shared" si="31"/>
-        <v>73327.413290802462</v>
+        <v>71266.412183004431</v>
       </c>
       <c r="AC13" s="3">
         <f t="shared" si="31"/>
-        <v>74060.687423710493</v>
+        <v>71979.076304834482</v>
       </c>
       <c r="AD13" s="3">
         <f t="shared" si="31"/>
-        <v>74801.294297947592</v>
+        <v>72698.86706788282</v>
       </c>
       <c r="AE13" s="3">
         <f t="shared" si="31"/>
-        <v>75549.307240927068</v>
+        <v>73425.855738561644</v>
       </c>
       <c r="AF13" s="3">
         <f t="shared" si="31"/>
-        <v>76304.800313336338</v>
+        <v>74160.114295947264</v>
       </c>
       <c r="AG13" s="3">
         <f t="shared" si="31"/>
-        <v>77067.848316469695</v>
+        <v>74901.715438906744</v>
       </c>
       <c r="AH13" s="3">
         <f t="shared" si="31"/>
-        <v>77838.52679963439</v>
+        <v>75650.732593295805</v>
       </c>
       <c r="AI13" s="3">
         <f t="shared" si="31"/>
-        <v>78616.912067630736</v>
+        <v>76407.23991922877</v>
       </c>
       <c r="AJ13" s="3">
         <f t="shared" si="31"/>
-        <v>79403.081188307042</v>
+        <v>77171.312318421056</v>
       </c>
       <c r="AK13" s="3">
         <f t="shared" si="31"/>
-        <v>80197.112000190114</v>
+        <v>77943.025441605263</v>
       </c>
       <c r="AL13" s="3">
         <f t="shared" si="31"/>
-        <v>80999.083120192023</v>
+        <v>78722.455696021323</v>
       </c>
       <c r="AM13" s="3">
         <f t="shared" si="31"/>
-        <v>81809.073951393948</v>
+        <v>79509.680252981532</v>
       </c>
       <c r="AN13" s="3">
         <f t="shared" si="31"/>
-        <v>82627.164690907885</v>
+        <v>80304.777055511353</v>
       </c>
       <c r="AO13" s="3">
         <f t="shared" si="31"/>
-        <v>83453.436337816966</v>
+        <v>81107.82482606647</v>
       </c>
       <c r="AP13" s="3">
         <f t="shared" si="31"/>
-        <v>84287.97070119514</v>
+        <v>81918.903074327129</v>
       </c>
       <c r="AQ13" s="3">
         <f t="shared" si="31"/>
-        <v>85130.850408207087</v>
+        <v>82738.092105070406</v>
       </c>
       <c r="AR13" s="3">
         <f t="shared" si="31"/>
-        <v>85982.15891228916</v>
+        <v>83565.473026121108</v>
       </c>
       <c r="AS13" s="3">
         <f t="shared" si="31"/>
-        <v>86841.98050141205</v>
+        <v>84401.127756382324</v>
       </c>
       <c r="AT13" s="3">
         <f t="shared" si="31"/>
-        <v>87710.400306426178</v>
+        <v>85245.13903394615</v>
       </c>
       <c r="AU13" s="3">
         <f t="shared" si="31"/>
-        <v>88587.504309490439</v>
+        <v>86097.59042428562</v>
       </c>
       <c r="AV13" s="3">
         <f t="shared" si="31"/>
-        <v>89473.37935258534</v>
+        <v>86958.566328528483</v>
       </c>
       <c r="AW13" s="3">
         <f t="shared" si="31"/>
-        <v>90368.113146111195</v>
+        <v>87828.151991813764</v>
       </c>
       <c r="AX13" s="3">
         <f t="shared" si="31"/>
-        <v>91271.794277572306</v>
+        <v>88706.433511731899</v>
       </c>
       <c r="AY13" s="3">
         <f t="shared" ref="AY13:CD13" si="32">AX13*(1+$U$17)</f>
-        <v>92184.512220348028</v>
+        <v>89593.497846849219</v>
       </c>
       <c r="AZ13" s="3">
         <f t="shared" si="32"/>
-        <v>93106.357342551506</v>
+        <v>90489.432825317708</v>
       </c>
       <c r="BA13" s="3">
         <f t="shared" si="32"/>
-        <v>94037.420915977025</v>
+        <v>91394.327153570892</v>
       </c>
       <c r="BB13" s="3">
         <f t="shared" si="32"/>
-        <v>94977.795125136792</v>
+        <v>92308.270425106602</v>
       </c>
       <c r="BC13" s="3">
         <f t="shared" si="32"/>
-        <v>95927.573076388158</v>
+        <v>93231.353129357667</v>
       </c>
       <c r="BD13" s="3">
         <f t="shared" si="32"/>
-        <v>96886.848807152041</v>
+        <v>94163.666660651244</v>
       </c>
       <c r="BE13" s="3">
         <f t="shared" si="32"/>
-        <v>97855.717295223556</v>
+        <v>95105.30332725776</v>
       </c>
       <c r="BF13" s="3">
         <f t="shared" si="32"/>
-        <v>98834.27446817579</v>
+        <v>96056.356360530335</v>
       </c>
       <c r="BG13" s="3">
         <f t="shared" si="32"/>
-        <v>99822.617212857556</v>
+        <v>97016.91992413564</v>
       </c>
       <c r="BH13" s="3">
         <f t="shared" si="32"/>
-        <v>100820.84338498613</v>
+        <v>97987.089123376994</v>
       </c>
       <c r="BI13" s="3">
         <f t="shared" si="32"/>
-        <v>101829.051818836</v>
+        <v>98966.96001461077</v>
       </c>
       <c r="BJ13" s="3">
         <f t="shared" si="32"/>
-        <v>102847.34233702435</v>
+        <v>99956.629614756879</v>
       </c>
       <c r="BK13" s="3">
         <f t="shared" si="32"/>
-        <v>103875.8157603946</v>
+        <v>100956.19591090445</v>
       </c>
       <c r="BL13" s="3">
         <f t="shared" si="32"/>
-        <v>104914.57391799855</v>
+        <v>101965.75787001351</v>
       </c>
       <c r="BM13" s="3">
         <f t="shared" si="32"/>
-        <v>105963.71965717855</v>
+        <v>102985.41544871364</v>
       </c>
       <c r="BN13" s="3">
         <f t="shared" si="32"/>
-        <v>107023.35685375033</v>
+        <v>104015.26960320078</v>
       </c>
       <c r="BO13" s="3">
         <f t="shared" si="32"/>
-        <v>108093.59042228783</v>
+        <v>105055.42229923279</v>
       </c>
       <c r="BP13" s="3">
         <f t="shared" si="32"/>
-        <v>109174.52632651071</v>
+        <v>106105.97652222512</v>
       </c>
       <c r="BQ13" s="3">
         <f t="shared" si="32"/>
-        <v>110266.27158977582</v>
+        <v>107167.03628744736</v>
       </c>
       <c r="BR13" s="3">
         <f t="shared" si="32"/>
-        <v>111368.93430567358</v>
+        <v>108238.70665032184</v>
       </c>
       <c r="BS13" s="3">
         <f t="shared" si="32"/>
-        <v>112482.62364873032</v>
+        <v>109321.09371682505</v>
       </c>
       <c r="BT13" s="3">
         <f t="shared" si="32"/>
-        <v>113607.44988521763</v>
+        <v>110414.3046539933</v>
       </c>
       <c r="BU13" s="3">
         <f t="shared" si="32"/>
-        <v>114743.52438406981</v>
+        <v>111518.44770053323</v>
       </c>
       <c r="BV13" s="3">
         <f t="shared" si="32"/>
-        <v>115890.9596279105</v>
+        <v>112633.63217753856</v>
       </c>
       <c r="BW13" s="3">
         <f t="shared" si="32"/>
-        <v>117049.86922418961</v>
+        <v>113759.96849931394</v>
       </c>
       <c r="BX13" s="3">
         <f t="shared" si="32"/>
-        <v>118220.3679164315</v>
+        <v>114897.56818430708</v>
       </c>
       <c r="BY13" s="3">
         <f t="shared" si="32"/>
-        <v>119402.57159559581</v>
+        <v>116046.54386615015</v>
       </c>
       <c r="BZ13" s="3">
         <f t="shared" si="32"/>
-        <v>120596.59731155177</v>
+        <v>117207.00930481165</v>
       </c>
       <c r="CA13" s="3">
         <f t="shared" si="32"/>
-        <v>121802.56328466728</v>
+        <v>118379.07939785976</v>
       </c>
       <c r="CB13" s="3">
         <f t="shared" si="32"/>
-        <v>123020.58891751396</v>
+        <v>119562.87019183836</v>
       </c>
       <c r="CC13" s="3">
         <f t="shared" si="32"/>
-        <v>124250.7948066891</v>
+        <v>120758.49889375674</v>
       </c>
       <c r="CD13" s="3">
         <f t="shared" si="32"/>
-        <v>125493.30275475599</v>
+        <v>121966.08388269431</v>
       </c>
       <c r="CE13" s="3">
         <f t="shared" ref="CE13:CY13" si="33">CD13*(1+$U$17)</f>
-        <v>126748.23578230356</v>
+        <v>123185.74472152125</v>
       </c>
       <c r="CF13" s="3">
         <f t="shared" si="33"/>
-        <v>128015.7181401266</v>
+        <v>124417.60216873646</v>
       </c>
       <c r="CG13" s="3">
         <f t="shared" si="33"/>
-        <v>129295.87532152787</v>
+        <v>125661.77819042382</v>
       </c>
       <c r="CH13" s="3">
         <f t="shared" si="33"/>
-        <v>130588.83407474315</v>
+        <v>126918.39597232806</v>
       </c>
       <c r="CI13" s="3">
         <f t="shared" si="33"/>
-        <v>131894.72241549057</v>
+        <v>128187.57993205133</v>
       </c>
       <c r="CJ13" s="3">
         <f t="shared" si="33"/>
-        <v>133213.66963964546</v>
+        <v>129469.45573137184</v>
       </c>
       <c r="CK13" s="3">
         <f t="shared" si="33"/>
-        <v>134545.80633604192</v>
+        <v>130764.15028868556</v>
       </c>
       <c r="CL13" s="3">
         <f t="shared" si="33"/>
-        <v>135891.26439940234</v>
+        <v>132071.79179157241</v>
       </c>
       <c r="CM13" s="3">
         <f t="shared" si="33"/>
-        <v>137250.17704339637</v>
+        <v>133392.50970948813</v>
       </c>
       <c r="CN13" s="3">
         <f t="shared" si="33"/>
-        <v>138622.67881383034</v>
+        <v>134726.43480658301</v>
       </c>
       <c r="CO13" s="3">
         <f t="shared" si="33"/>
-        <v>140008.90560196864</v>
+        <v>136073.69915464884</v>
       </c>
       <c r="CP13" s="3">
         <f t="shared" si="33"/>
-        <v>141408.99465798834</v>
+        <v>137434.43614619534</v>
       </c>
       <c r="CQ13" s="3">
         <f t="shared" si="33"/>
-        <v>142823.08460456823</v>
+        <v>138808.7805076573</v>
       </c>
       <c r="CR13" s="3">
         <f t="shared" si="33"/>
-        <v>144251.31545061391</v>
+        <v>140196.86831273386</v>
       </c>
       <c r="CS13" s="3">
         <f t="shared" si="33"/>
-        <v>145693.82860512004</v>
+        <v>141598.8369958612</v>
       </c>
       <c r="CT13" s="3">
         <f t="shared" si="33"/>
-        <v>147150.76689117125</v>
+        <v>143014.82536581982</v>
       </c>
       <c r="CU13" s="3">
         <f t="shared" si="33"/>
-        <v>148622.27456008297</v>
+        <v>144444.97361947803</v>
       </c>
       <c r="CV13" s="3">
         <f t="shared" si="33"/>
-        <v>150108.49730568379</v>
+        <v>145889.4233556728</v>
       </c>
       <c r="CW13" s="3">
         <f t="shared" si="33"/>
-        <v>151609.58227874062</v>
+        <v>147348.31758922953</v>
       </c>
       <c r="CX13" s="3">
         <f t="shared" si="33"/>
-        <v>153125.67810152803</v>
+        <v>148821.80076512182</v>
       </c>
       <c r="CY13" s="3">
         <f t="shared" si="33"/>
-        <v>154656.93488254331</v>
+        <v>150310.01877277304</v>
       </c>
     </row>
     <row r="14" spans="1:103" x14ac:dyDescent="0.2">
@@ -1713,57 +1714,57 @@
       </c>
       <c r="I15" s="4">
         <f t="shared" ref="I15" si="35">I13/I14</f>
-        <v>2.9035091359980236</v>
+        <v>3.132665377057299</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" ref="J15" si="36">J13/J14</f>
-        <v>3.2000703429961197</v>
+        <v>3.3999063060183601</v>
       </c>
       <c r="K15" s="4">
         <f t="shared" ref="K15" si="37">K13/K14</f>
-        <v>3.6156693423390842</v>
+        <v>3.7819787702450443</v>
       </c>
       <c r="L15" s="4">
         <f t="shared" ref="L15" si="38">L13/L14</f>
-        <v>4.1036392842607219</v>
+        <v>4.243316202636052</v>
       </c>
       <c r="M15" s="4">
         <f t="shared" ref="M15" si="39">M13/M14</f>
-        <v>4.6516675105907552</v>
+        <v>4.752553412040033</v>
       </c>
       <c r="N15" s="4">
         <f t="shared" ref="N15" si="40">N13/N14</f>
-        <v>5.2492777047731147</v>
+        <v>5.3034451301270007</v>
       </c>
       <c r="O15" s="4">
         <f t="shared" ref="O15" si="41">O13/O14</f>
-        <v>5.9002263315736334</v>
+        <v>5.8988622003648858</v>
       </c>
       <c r="P15" s="4">
         <f t="shared" ref="P15" si="42">P13/P14</f>
-        <v>6.6085267689636495</v>
+        <v>6.5418551829615534</v>
       </c>
       <c r="Q15" s="4">
         <f t="shared" ref="Q15" si="43">Q13/Q14</f>
-        <v>7.3784657482840625</v>
+        <v>7.2356649453457438</v>
       </c>
       <c r="R15" s="4">
         <f t="shared" ref="R15" si="44">R13/R14</f>
-        <v>8.2146207986071484</v>
+        <v>7.9837338518805812</v>
       </c>
       <c r="T15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="U15" s="5">
-        <v>4.1000000000000002E-2</v>
+      <c r="U15" s="7">
+        <v>0.02</v>
       </c>
     </row>
     <row r="16" spans="1:103" x14ac:dyDescent="0.2">
       <c r="T16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U16" s="5">
-        <v>0.06</v>
+      <c r="U16" s="7">
+        <v>0.04</v>
       </c>
     </row>
     <row r="17" spans="1:111" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1821,7 +1822,7 @@
       <c r="T17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="U17" s="5">
+      <c r="U17" s="7">
         <v>0.01</v>
       </c>
     </row>
@@ -1842,34 +1843,34 @@
         <v>0.22698594251558868</v>
       </c>
       <c r="I18" s="5">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="J18" s="5">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="K18" s="5">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="L18" s="5">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="M18" s="5">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="N18" s="5">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="O18" s="5">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="P18" s="5">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="Q18" s="5">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="R18" s="5">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="T18" s="1" t="s">
         <v>33</v>
@@ -1886,7 +1887,7 @@
       </c>
       <c r="U19" s="1">
         <f>NPV(U18,I24:XFD24)+Sheet1!D5-Sheet1!D6</f>
-        <v>688238.88926570932</v>
+        <v>689885.92275408143</v>
       </c>
     </row>
     <row r="20" spans="1:111" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1948,9 +1949,9 @@
       <c r="T20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="U20" s="3">
+      <c r="U20" s="10">
         <f>U19/Sheet1!D3</f>
-        <v>85.858144868476714</v>
+        <v>86.063613118024136</v>
       </c>
     </row>
     <row r="21" spans="1:111" x14ac:dyDescent="0.2">
@@ -2011,7 +2012,7 @@
       </c>
       <c r="U21" s="5">
         <f>U20/Sheet1!D2-1</f>
-        <v>-0.12389648093391104</v>
+        <v>-0.11274625651521508</v>
       </c>
     </row>
     <row r="22" spans="1:111" x14ac:dyDescent="0.2">
@@ -2082,15 +2083,15 @@
         <v>23783</v>
       </c>
       <c r="I23" s="1">
-        <f>I4*0.0325</f>
-        <v>23017.293000000001</v>
+        <f>I4*0.03</f>
+        <v>21246.732</v>
       </c>
       <c r="J23" s="1">
-        <f>J4*0.03</f>
+        <f t="shared" ref="J23:R23" si="50">J4*0.03</f>
         <v>22096.601279999999</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" ref="K23:R23" si="50">K4*0.03</f>
+        <f t="shared" si="50"/>
         <v>22980.465331200005</v>
       </c>
       <c r="L23" s="1">
@@ -2140,7 +2141,7 @@
       </c>
       <c r="I24" s="3">
         <f t="shared" si="51"/>
-        <v>17157.470200000007</v>
+        <v>18928.031200000009</v>
       </c>
       <c r="J24" s="3">
         <f t="shared" ref="J24" si="52">J22-J23</f>
@@ -2566,43 +2567,43 @@
       </c>
       <c r="I25" s="5">
         <f t="shared" ref="I25:R25" si="63">I24/I13</f>
-        <v>0.73124843495302039</v>
+        <v>0.74769818979349512</v>
       </c>
       <c r="J25" s="5">
         <f t="shared" si="63"/>
-        <v>0.85816923386870059</v>
+        <v>0.80772870408626496</v>
       </c>
       <c r="K25" s="5">
         <f t="shared" si="63"/>
-        <v>0.88449429152652215</v>
+        <v>0.84559937737016044</v>
       </c>
       <c r="L25" s="5">
         <f t="shared" si="63"/>
-        <v>0.90236221030812858</v>
+        <v>0.87265922170787014</v>
       </c>
       <c r="M25" s="5">
         <f t="shared" si="63"/>
-        <v>0.91724139970026997</v>
+        <v>0.89777045062667771</v>
       </c>
       <c r="N25" s="5">
         <f t="shared" si="63"/>
-        <v>0.93261273565668734</v>
+        <v>0.92308737440503674</v>
       </c>
       <c r="O25" s="5">
         <f t="shared" si="63"/>
-        <v>0.94851531562436697</v>
+        <v>0.94873466289847996</v>
       </c>
       <c r="P25" s="5">
         <f t="shared" si="63"/>
-        <v>0.96498429378822304</v>
+        <v>0.974818970884338</v>
       </c>
       <c r="Q25" s="5">
         <f t="shared" si="63"/>
-        <v>0.98205216866046463</v>
+        <v>1.0014336407533975</v>
       </c>
       <c r="R25" s="5">
         <f t="shared" si="63"/>
-        <v>0.99974969745094366</v>
+        <v>1.0286621285787532</v>
       </c>
     </row>
     <row r="26" spans="1:111" x14ac:dyDescent="0.2">
@@ -2615,43 +2616,43 @@
       </c>
       <c r="I26" s="1">
         <f>H26+I13</f>
-        <v>-34046.742671999971</v>
+        <v>-32194.931087999968</v>
       </c>
       <c r="J26" s="1">
         <f t="shared" ref="J26:L26" si="64">I26+J13</f>
-        <v>-8186.9742302483282</v>
+        <v>-4720.2882290656016</v>
       </c>
       <c r="K26" s="1">
         <f t="shared" si="64"/>
-        <v>21031.249725193811</v>
+        <v>25841.8822132846</v>
       </c>
       <c r="L26" s="1">
         <f t="shared" si="64"/>
-        <v>54192.758781304707</v>
+        <v>60132.120446786532</v>
       </c>
       <c r="M26" s="1">
         <f t="shared" ref="M26:R26" si="65">L26+M13</f>
-        <v>91782.883934388607</v>
+        <v>98537.504569482029</v>
       </c>
       <c r="N26" s="1">
         <f t="shared" si="65"/>
-        <v>134202.29706666013</v>
+        <v>141394.64466603834</v>
       </c>
       <c r="O26" s="1">
         <f t="shared" si="65"/>
-        <v>181882.02605210667</v>
+        <v>189063.350107187</v>
       </c>
       <c r="P26" s="1">
         <f t="shared" si="65"/>
-        <v>235285.53087210192</v>
+        <v>241928.08184069931</v>
       </c>
       <c r="Q26" s="1">
         <f t="shared" si="65"/>
-        <v>294910.91258398542</v>
+        <v>300399.49026403826</v>
       </c>
       <c r="R26" s="1">
         <f t="shared" si="65"/>
-        <v>361293.26325752982</v>
+        <v>364916.04352108523</v>
       </c>
     </row>
     <row r="28" spans="1:111" x14ac:dyDescent="0.2">

--- a/WMT.xlsx
+++ b/WMT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C918C71-18DD-47E4-9BFE-CAC7FAE277D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3B6C64-A654-44E1-A205-950C34035EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6045" yWindow="780" windowWidth="17745" windowHeight="14640" activeTab="1" xr2:uid="{A3984266-D378-4982-874A-17DFE6E9796E}"/>
+    <workbookView xWindow="2295" yWindow="285" windowWidth="21945" windowHeight="14610" activeTab="1" xr2:uid="{A3984266-D378-4982-874A-17DFE6E9796E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>WMT</t>
   </si>
@@ -145,9 +145,6 @@
   </si>
   <si>
     <t>Diff</t>
-  </si>
-  <si>
-    <t>Cost of Debt</t>
   </si>
 </sst>
 </file>
@@ -693,10 +690,10 @@
   <dimension ref="A1:DG33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W18" sqref="W18"/>
+      <selection pane="bottomRight" activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1087,44 +1084,44 @@
         <v>-2245</v>
       </c>
       <c r="I9" s="1">
-        <f>H26*$U$15</f>
+        <f>H26*$U$16</f>
         <v>-1150.2</v>
       </c>
       <c r="J9" s="1">
-        <f>I26*$U$15</f>
+        <f t="shared" ref="J9:R9" si="20">I26*$U$16</f>
         <v>-643.8986217599994</v>
       </c>
       <c r="K9" s="1">
-        <f>J26*$U$15</f>
+        <f t="shared" si="20"/>
         <v>-94.405764581312027</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" ref="L9:R9" si="20">K26*$U$16</f>
-        <v>1033.675288531384</v>
+        <f t="shared" si="20"/>
+        <v>516.83764426569201</v>
       </c>
       <c r="M9" s="1">
         <f t="shared" si="20"/>
-        <v>2405.2848178714612</v>
+        <v>1194.4763741563327</v>
       </c>
       <c r="N9" s="1">
         <f t="shared" si="20"/>
-        <v>3941.5001827792812</v>
+        <v>1943.4532831995436</v>
       </c>
       <c r="O9" s="1">
         <f t="shared" si="20"/>
-        <v>5655.7857866415334</v>
+        <v>2769.02694411731</v>
       </c>
       <c r="P9" s="1">
         <f t="shared" si="20"/>
-        <v>7562.5340042874805</v>
+        <v>3676.7902632284004</v>
       </c>
       <c r="Q9" s="1">
         <f t="shared" si="20"/>
-        <v>9677.1232736279726</v>
+        <v>4672.6901467899133</v>
       </c>
       <c r="R9" s="1">
         <f t="shared" si="20"/>
-        <v>12015.979610561531</v>
+        <v>5763.04827185265</v>
       </c>
     </row>
     <row r="10" spans="1:103" x14ac:dyDescent="0.2">
@@ -1157,31 +1154,31 @@
       </c>
       <c r="L10" s="1">
         <f t="shared" si="21"/>
-        <v>43405.36485253409</v>
+        <v>42888.527208268402</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" ref="M10" si="22">M8+M9</f>
-        <v>48614.410281893041</v>
+        <v>47403.601838177907</v>
       </c>
       <c r="N10" s="1">
         <f t="shared" ref="N10" si="23">N8+N9</f>
-        <v>54249.54442602062</v>
+        <v>52251.497526440886</v>
       </c>
       <c r="O10" s="1">
         <f t="shared" ref="O10" si="24">O8+O9</f>
-        <v>60340.133469808417</v>
+        <v>57453.374627284189</v>
       </c>
       <c r="P10" s="1">
         <f t="shared" ref="P10" si="25">P8+P9</f>
-        <v>66917.381941154832</v>
+        <v>63031.63820009576</v>
       </c>
       <c r="Q10" s="1">
         <f t="shared" ref="Q10" si="26">Q8+Q9</f>
-        <v>74014.441042201215</v>
+        <v>69010.007915363152</v>
       </c>
       <c r="R10" s="1">
         <f t="shared" ref="R10" si="27">R8+R9</f>
-        <v>81666.523110186041</v>
+        <v>75413.591771477149</v>
       </c>
     </row>
     <row r="11" spans="1:103" x14ac:dyDescent="0.2">
@@ -1211,31 +1208,31 @@
       </c>
       <c r="L11" s="1">
         <f>L10*L18</f>
-        <v>9115.1266190321585</v>
+        <v>9006.5907137363647</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" ref="M11:R11" si="28">M10*M18</f>
-        <v>10209.026159197538</v>
+        <v>9954.7563860173595</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" si="28"/>
-        <v>11392.404329464331</v>
+        <v>10972.814480552586</v>
       </c>
       <c r="O11" s="1">
         <f t="shared" si="28"/>
-        <v>12671.428028659768</v>
+        <v>12065.208671729679</v>
       </c>
       <c r="P11" s="1">
         <f t="shared" si="28"/>
-        <v>14052.650207642515</v>
+        <v>13236.644022020109</v>
       </c>
       <c r="Q11" s="1">
         <f t="shared" si="28"/>
-        <v>15543.032618862255</v>
+        <v>14492.101662226261</v>
       </c>
       <c r="R11" s="1">
         <f t="shared" si="28"/>
-        <v>17149.969853139068</v>
+        <v>15836.854272010201</v>
       </c>
     </row>
     <row r="12" spans="1:103" x14ac:dyDescent="0.2">
@@ -1285,371 +1282,371 @@
       </c>
       <c r="L13" s="3">
         <f t="shared" si="29"/>
-        <v>34290.238233501936</v>
+        <v>33881.936494532041</v>
       </c>
       <c r="M13" s="3">
         <f t="shared" ref="M13:R13" si="30">M10-M11-M12</f>
-        <v>38405.384122695505</v>
+        <v>37448.845452160545</v>
       </c>
       <c r="N13" s="3">
         <f t="shared" si="30"/>
-        <v>42857.140096556293</v>
+        <v>41278.683045888298</v>
       </c>
       <c r="O13" s="3">
         <f t="shared" si="30"/>
-        <v>47668.705441148646</v>
+        <v>45388.165955554512</v>
       </c>
       <c r="P13" s="3">
         <f t="shared" si="30"/>
-        <v>52864.731733512315</v>
+        <v>49794.994178075649</v>
       </c>
       <c r="Q13" s="3">
         <f t="shared" si="30"/>
-        <v>58471.408423338959</v>
+        <v>54517.906253136891</v>
       </c>
       <c r="R13" s="3">
         <f t="shared" si="30"/>
-        <v>64516.553257046973</v>
+        <v>59576.737499466952</v>
       </c>
       <c r="S13" s="3">
         <f t="shared" ref="S13:AX13" si="31">R13*(1+$U$17)</f>
-        <v>65161.718789617444</v>
+        <v>60172.504874461622</v>
       </c>
       <c r="T13" s="3">
         <f t="shared" si="31"/>
-        <v>65813.33597751362</v>
+        <v>60774.229923206236</v>
       </c>
       <c r="U13" s="3">
         <f t="shared" si="31"/>
-        <v>66471.469337288756</v>
+        <v>61381.9722224383</v>
       </c>
       <c r="V13" s="3">
         <f t="shared" si="31"/>
-        <v>67136.18403066165</v>
+        <v>61995.791944662684</v>
       </c>
       <c r="W13" s="3">
         <f t="shared" si="31"/>
-        <v>67807.545870968272</v>
+        <v>62615.749864109312</v>
       </c>
       <c r="X13" s="3">
         <f t="shared" si="31"/>
-        <v>68485.621329677961</v>
+        <v>63241.907362750404</v>
       </c>
       <c r="Y13" s="3">
         <f t="shared" si="31"/>
-        <v>69170.477542974739</v>
+        <v>63874.326436377909</v>
       </c>
       <c r="Z13" s="3">
         <f t="shared" si="31"/>
-        <v>69862.182318404492</v>
+        <v>64513.069700741689</v>
       </c>
       <c r="AA13" s="3">
         <f t="shared" si="31"/>
-        <v>70560.804141588538</v>
+        <v>65158.200397749104</v>
       </c>
       <c r="AB13" s="3">
         <f t="shared" si="31"/>
-        <v>71266.412183004431</v>
+        <v>65809.782401726596</v>
       </c>
       <c r="AC13" s="3">
         <f t="shared" si="31"/>
-        <v>71979.076304834482</v>
+        <v>66467.880225743866</v>
       </c>
       <c r="AD13" s="3">
         <f t="shared" si="31"/>
-        <v>72698.86706788282</v>
+        <v>67132.559028001298</v>
       </c>
       <c r="AE13" s="3">
         <f t="shared" si="31"/>
-        <v>73425.855738561644</v>
+        <v>67803.884618281314</v>
       </c>
       <c r="AF13" s="3">
         <f t="shared" si="31"/>
-        <v>74160.114295947264</v>
+        <v>68481.923464464126</v>
       </c>
       <c r="AG13" s="3">
         <f t="shared" si="31"/>
-        <v>74901.715438906744</v>
+        <v>69166.74269910877</v>
       </c>
       <c r="AH13" s="3">
         <f t="shared" si="31"/>
-        <v>75650.732593295805</v>
+        <v>69858.410126099858</v>
       </c>
       <c r="AI13" s="3">
         <f t="shared" si="31"/>
-        <v>76407.23991922877</v>
+        <v>70556.994227360861</v>
       </c>
       <c r="AJ13" s="3">
         <f t="shared" si="31"/>
-        <v>77171.312318421056</v>
+        <v>71262.564169634468</v>
       </c>
       <c r="AK13" s="3">
         <f t="shared" si="31"/>
-        <v>77943.025441605263</v>
+        <v>71975.189811330813</v>
       </c>
       <c r="AL13" s="3">
         <f t="shared" si="31"/>
-        <v>78722.455696021323</v>
+        <v>72694.941709444116</v>
       </c>
       <c r="AM13" s="3">
         <f t="shared" si="31"/>
-        <v>79509.680252981532</v>
+        <v>73421.891126538554</v>
       </c>
       <c r="AN13" s="3">
         <f t="shared" si="31"/>
-        <v>80304.777055511353</v>
+        <v>74156.110037803941</v>
       </c>
       <c r="AO13" s="3">
         <f t="shared" si="31"/>
-        <v>81107.82482606647</v>
+        <v>74897.671138181977</v>
       </c>
       <c r="AP13" s="3">
         <f t="shared" si="31"/>
-        <v>81918.903074327129</v>
+        <v>75646.6478495638</v>
       </c>
       <c r="AQ13" s="3">
         <f t="shared" si="31"/>
-        <v>82738.092105070406</v>
+        <v>76403.114328059441</v>
       </c>
       <c r="AR13" s="3">
         <f t="shared" si="31"/>
-        <v>83565.473026121108</v>
+        <v>77167.145471340031</v>
       </c>
       <c r="AS13" s="3">
         <f t="shared" si="31"/>
-        <v>84401.127756382324</v>
+        <v>77938.816926053434</v>
       </c>
       <c r="AT13" s="3">
         <f t="shared" si="31"/>
-        <v>85245.13903394615</v>
+        <v>78718.20509531397</v>
       </c>
       <c r="AU13" s="3">
         <f t="shared" si="31"/>
-        <v>86097.59042428562</v>
+        <v>79505.387146267109</v>
       </c>
       <c r="AV13" s="3">
         <f t="shared" si="31"/>
-        <v>86958.566328528483</v>
+        <v>80300.441017729783</v>
       </c>
       <c r="AW13" s="3">
         <f t="shared" si="31"/>
-        <v>87828.151991813764</v>
+        <v>81103.445427907078</v>
       </c>
       <c r="AX13" s="3">
         <f t="shared" si="31"/>
-        <v>88706.433511731899</v>
+        <v>81914.479882186148</v>
       </c>
       <c r="AY13" s="3">
         <f t="shared" ref="AY13:CD13" si="32">AX13*(1+$U$17)</f>
-        <v>89593.497846849219</v>
+        <v>82733.624681008005</v>
       </c>
       <c r="AZ13" s="3">
         <f t="shared" si="32"/>
-        <v>90489.432825317708</v>
+        <v>83560.960927818087</v>
       </c>
       <c r="BA13" s="3">
         <f t="shared" si="32"/>
-        <v>91394.327153570892</v>
+        <v>84396.570537096268</v>
       </c>
       <c r="BB13" s="3">
         <f t="shared" si="32"/>
-        <v>92308.270425106602</v>
+        <v>85240.536242467235</v>
       </c>
       <c r="BC13" s="3">
         <f t="shared" si="32"/>
-        <v>93231.353129357667</v>
+        <v>86092.941604891908</v>
       </c>
       <c r="BD13" s="3">
         <f t="shared" si="32"/>
-        <v>94163.666660651244</v>
+        <v>86953.871020940831</v>
       </c>
       <c r="BE13" s="3">
         <f t="shared" si="32"/>
-        <v>95105.30332725776</v>
+        <v>87823.409731150241</v>
       </c>
       <c r="BF13" s="3">
         <f t="shared" si="32"/>
-        <v>96056.356360530335</v>
+        <v>88701.643828461747</v>
       </c>
       <c r="BG13" s="3">
         <f t="shared" si="32"/>
-        <v>97016.91992413564</v>
+        <v>89588.660266746359</v>
       </c>
       <c r="BH13" s="3">
         <f t="shared" si="32"/>
-        <v>97987.089123376994</v>
+        <v>90484.546869413825</v>
       </c>
       <c r="BI13" s="3">
         <f t="shared" si="32"/>
-        <v>98966.96001461077</v>
+        <v>91389.392338107966</v>
       </c>
       <c r="BJ13" s="3">
         <f t="shared" si="32"/>
-        <v>99956.629614756879</v>
+        <v>92303.286261489047</v>
       </c>
       <c r="BK13" s="3">
         <f t="shared" si="32"/>
-        <v>100956.19591090445</v>
+        <v>93226.319124103946</v>
       </c>
       <c r="BL13" s="3">
         <f t="shared" si="32"/>
-        <v>101965.75787001351</v>
+        <v>94158.582315344989</v>
       </c>
       <c r="BM13" s="3">
         <f t="shared" si="32"/>
-        <v>102985.41544871364</v>
+        <v>95100.16813849844</v>
       </c>
       <c r="BN13" s="3">
         <f t="shared" si="32"/>
-        <v>104015.26960320078</v>
+        <v>96051.16981988342</v>
       </c>
       <c r="BO13" s="3">
         <f t="shared" si="32"/>
-        <v>105055.42229923279</v>
+        <v>97011.68151808226</v>
       </c>
       <c r="BP13" s="3">
         <f t="shared" si="32"/>
-        <v>106105.97652222512</v>
+        <v>97981.798333263083</v>
       </c>
       <c r="BQ13" s="3">
         <f t="shared" si="32"/>
-        <v>107167.03628744736</v>
+        <v>98961.616316595711</v>
       </c>
       <c r="BR13" s="3">
         <f t="shared" si="32"/>
-        <v>108238.70665032184</v>
+        <v>99951.232479761675</v>
       </c>
       <c r="BS13" s="3">
         <f t="shared" si="32"/>
-        <v>109321.09371682505</v>
+        <v>100950.74480455929</v>
       </c>
       <c r="BT13" s="3">
         <f t="shared" si="32"/>
-        <v>110414.3046539933</v>
+        <v>101960.25225260489</v>
       </c>
       <c r="BU13" s="3">
         <f t="shared" si="32"/>
-        <v>111518.44770053323</v>
+        <v>102979.85477513094</v>
       </c>
       <c r="BV13" s="3">
         <f t="shared" si="32"/>
-        <v>112633.63217753856</v>
+        <v>104009.65332288225</v>
       </c>
       <c r="BW13" s="3">
         <f t="shared" si="32"/>
-        <v>113759.96849931394</v>
+        <v>105049.74985611107</v>
       </c>
       <c r="BX13" s="3">
         <f t="shared" si="32"/>
-        <v>114897.56818430708</v>
+        <v>106100.24735467219</v>
       </c>
       <c r="BY13" s="3">
         <f t="shared" si="32"/>
-        <v>116046.54386615015</v>
+        <v>107161.2498282189</v>
       </c>
       <c r="BZ13" s="3">
         <f t="shared" si="32"/>
-        <v>117207.00930481165</v>
+        <v>108232.8623265011</v>
       </c>
       <c r="CA13" s="3">
         <f t="shared" si="32"/>
-        <v>118379.07939785976</v>
+        <v>109315.19094976611</v>
       </c>
       <c r="CB13" s="3">
         <f t="shared" si="32"/>
-        <v>119562.87019183836</v>
+        <v>110408.34285926378</v>
       </c>
       <c r="CC13" s="3">
         <f t="shared" si="32"/>
-        <v>120758.49889375674</v>
+        <v>111512.42628785642</v>
       </c>
       <c r="CD13" s="3">
         <f t="shared" si="32"/>
-        <v>121966.08388269431</v>
+        <v>112627.55055073499</v>
       </c>
       <c r="CE13" s="3">
         <f t="shared" ref="CE13:CY13" si="33">CD13*(1+$U$17)</f>
-        <v>123185.74472152125</v>
+        <v>113753.82605624234</v>
       </c>
       <c r="CF13" s="3">
         <f t="shared" si="33"/>
-        <v>124417.60216873646</v>
+        <v>114891.36431680476</v>
       </c>
       <c r="CG13" s="3">
         <f t="shared" si="33"/>
-        <v>125661.77819042382</v>
+        <v>116040.27795997281</v>
       </c>
       <c r="CH13" s="3">
         <f t="shared" si="33"/>
-        <v>126918.39597232806</v>
+        <v>117200.68073957253</v>
       </c>
       <c r="CI13" s="3">
         <f t="shared" si="33"/>
-        <v>128187.57993205133</v>
+        <v>118372.68754696826</v>
       </c>
       <c r="CJ13" s="3">
         <f t="shared" si="33"/>
-        <v>129469.45573137184</v>
+        <v>119556.41442243794</v>
       </c>
       <c r="CK13" s="3">
         <f t="shared" si="33"/>
-        <v>130764.15028868556</v>
+        <v>120751.97856666232</v>
       </c>
       <c r="CL13" s="3">
         <f t="shared" si="33"/>
-        <v>132071.79179157241</v>
+        <v>121959.49835232894</v>
       </c>
       <c r="CM13" s="3">
         <f t="shared" si="33"/>
-        <v>133392.50970948813</v>
+        <v>123179.09333585223</v>
       </c>
       <c r="CN13" s="3">
         <f t="shared" si="33"/>
-        <v>134726.43480658301</v>
+        <v>124410.88426921076</v>
       </c>
       <c r="CO13" s="3">
         <f t="shared" si="33"/>
-        <v>136073.69915464884</v>
+        <v>125654.99311190286</v>
       </c>
       <c r="CP13" s="3">
         <f t="shared" si="33"/>
-        <v>137434.43614619534</v>
+        <v>126911.5430430219</v>
       </c>
       <c r="CQ13" s="3">
         <f t="shared" si="33"/>
-        <v>138808.7805076573</v>
+        <v>128180.65847345212</v>
       </c>
       <c r="CR13" s="3">
         <f t="shared" si="33"/>
-        <v>140196.86831273386</v>
+        <v>129462.46505818664</v>
       </c>
       <c r="CS13" s="3">
         <f t="shared" si="33"/>
-        <v>141598.8369958612</v>
+        <v>130757.08970876852</v>
       </c>
       <c r="CT13" s="3">
         <f t="shared" si="33"/>
-        <v>143014.82536581982</v>
+        <v>132064.66060585619</v>
       </c>
       <c r="CU13" s="3">
         <f t="shared" si="33"/>
-        <v>144444.97361947803</v>
+        <v>133385.30721191474</v>
       </c>
       <c r="CV13" s="3">
         <f t="shared" si="33"/>
-        <v>145889.4233556728</v>
+        <v>134719.16028403389</v>
       </c>
       <c r="CW13" s="3">
         <f t="shared" si="33"/>
-        <v>147348.31758922953</v>
+        <v>136066.35188687424</v>
       </c>
       <c r="CX13" s="3">
         <f t="shared" si="33"/>
-        <v>148821.80076512182</v>
+        <v>137427.01540574298</v>
       </c>
       <c r="CY13" s="3">
         <f t="shared" si="33"/>
-        <v>150310.01877277304</v>
+        <v>138801.2855598004</v>
       </c>
     </row>
     <row r="14" spans="1:103" x14ac:dyDescent="0.2">
@@ -1726,45 +1723,40 @@
       </c>
       <c r="L15" s="4">
         <f t="shared" ref="L15" si="38">L13/L14</f>
-        <v>4.243316202636052</v>
+        <v>4.1927900624343577</v>
       </c>
       <c r="M15" s="4">
         <f t="shared" ref="M15" si="39">M13/M14</f>
-        <v>4.752553412040033</v>
+        <v>4.6341845628215008</v>
       </c>
       <c r="N15" s="4">
         <f t="shared" ref="N15" si="40">N13/N14</f>
-        <v>5.3034451301270007</v>
+        <v>5.1081157091805842</v>
       </c>
       <c r="O15" s="4">
         <f t="shared" ref="O15" si="41">O13/O14</f>
-        <v>5.8988622003648858</v>
+        <v>5.6166521415115103</v>
       </c>
       <c r="P15" s="4">
         <f t="shared" ref="P15" si="42">P13/P14</f>
-        <v>6.5418551829615534</v>
+        <v>6.161984182412529</v>
       </c>
       <c r="Q15" s="4">
         <f t="shared" ref="Q15" si="43">Q13/Q14</f>
-        <v>7.2356649453457438</v>
+        <v>6.7464306710972517</v>
       </c>
       <c r="R15" s="4">
         <f t="shared" ref="R15" si="44">R13/R14</f>
-        <v>7.9837338518805812</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U15" s="7">
-        <v>0.02</v>
-      </c>
+        <v>7.3724461699624984</v>
+      </c>
+      <c r="U15" s="7"/>
     </row>
     <row r="16" spans="1:103" x14ac:dyDescent="0.2">
       <c r="T16" s="1" t="s">
         <v>31</v>
       </c>
       <c r="U16" s="7">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="17" spans="1:111" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2579,31 +2571,31 @@
       </c>
       <c r="L25" s="5">
         <f t="shared" si="63"/>
-        <v>0.87265922170787014</v>
+        <v>0.88317539388146882</v>
       </c>
       <c r="M25" s="5">
         <f t="shared" si="63"/>
-        <v>0.89777045062667771</v>
+        <v>0.92070178917448509</v>
       </c>
       <c r="N25" s="5">
         <f t="shared" si="63"/>
-        <v>0.92308737440503674</v>
+        <v>0.95838534582753765</v>
       </c>
       <c r="O25" s="5">
         <f t="shared" si="63"/>
-        <v>0.94873466289847996</v>
+        <v>0.9964040677872017</v>
       </c>
       <c r="P25" s="5">
         <f t="shared" si="63"/>
-        <v>0.974818970884338</v>
+        <v>1.0349141361528444</v>
       </c>
       <c r="Q25" s="5">
         <f t="shared" si="63"/>
-        <v>1.0014336407533975</v>
+        <v>1.074055103023954</v>
       </c>
       <c r="R25" s="5">
         <f t="shared" si="63"/>
-        <v>1.0286621285787532</v>
+        <v>1.1139538314355031</v>
       </c>
     </row>
     <row r="26" spans="1:111" x14ac:dyDescent="0.2">
@@ -2628,31 +2620,31 @@
       </c>
       <c r="L26" s="1">
         <f t="shared" si="64"/>
-        <v>60132.120446786532</v>
+        <v>59723.818707816637</v>
       </c>
       <c r="M26" s="1">
         <f t="shared" ref="M26:R26" si="65">L26+M13</f>
-        <v>98537.504569482029</v>
+        <v>97172.664159977183</v>
       </c>
       <c r="N26" s="1">
         <f t="shared" si="65"/>
-        <v>141394.64466603834</v>
+        <v>138451.34720586549</v>
       </c>
       <c r="O26" s="1">
         <f t="shared" si="65"/>
-        <v>189063.350107187</v>
+        <v>183839.51316142001</v>
       </c>
       <c r="P26" s="1">
         <f t="shared" si="65"/>
-        <v>241928.08184069931</v>
+        <v>233634.50733949564</v>
       </c>
       <c r="Q26" s="1">
         <f t="shared" si="65"/>
-        <v>300399.49026403826</v>
+        <v>288152.41359263251</v>
       </c>
       <c r="R26" s="1">
         <f t="shared" si="65"/>
-        <v>364916.04352108523</v>
+        <v>347729.15109209949</v>
       </c>
     </row>
     <row r="28" spans="1:111" x14ac:dyDescent="0.2">

--- a/WMT.xlsx
+++ b/WMT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3B6C64-A654-44E1-A205-950C34035EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BB2964-B6B1-465B-81CC-41FACB5111FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="285" windowWidth="21945" windowHeight="14610" activeTab="1" xr2:uid="{A3984266-D378-4982-874A-17DFE6E9796E}"/>
+    <workbookView xWindow="1200" yWindow="465" windowWidth="20970" windowHeight="15015" activeTab="1" xr2:uid="{A3984266-D378-4982-874A-17DFE6E9796E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,9 +72,6 @@
     <t>COGS</t>
   </si>
   <si>
-    <t>OPEX</t>
-  </si>
-  <si>
     <t>Operating Income</t>
   </si>
   <si>
@@ -145,6 +142,9 @@
   </si>
   <si>
     <t>Diff</t>
+  </si>
+  <si>
+    <t>Operating Expenses</t>
   </si>
 </sst>
 </file>
@@ -626,7 +626,7 @@
         <v>8016</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -646,7 +646,7 @@
         <v>9037</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -658,7 +658,7 @@
         <v>66547</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -690,10 +690,10 @@
   <dimension ref="A1:DG33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S21" sqref="S21"/>
+      <selection pane="bottomRight" activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -904,7 +904,7 @@
     </row>
     <row r="6" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="1">
         <f>F4-F5</f>
@@ -961,7 +961,7 @@
     </row>
     <row r="7" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F7" s="1">
         <v>127140</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="8" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" s="1">
         <f>F6-F7</f>
@@ -1072,7 +1072,7 @@
     </row>
     <row r="9" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="1">
         <v>-1874</v>
@@ -1126,7 +1126,7 @@
     </row>
     <row r="10" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" s="1">
         <f>F8+F9</f>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="11" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" s="1">
         <v>5724</v>
@@ -1237,7 +1237,7 @@
     </row>
     <row r="12" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" s="1">
         <v>388</v>
@@ -1254,7 +1254,7 @@
     </row>
     <row r="13" spans="1:103" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" ref="F13:L13" si="29">F10-F11-F12</f>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="15" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" s="4">
         <f>F13/F14</f>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="16" spans="1:103" x14ac:dyDescent="0.2">
       <c r="T16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U16" s="7">
         <v>0.02</v>
@@ -1761,7 +1761,7 @@
     </row>
     <row r="17" spans="1:111" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G17" s="6">
         <f t="shared" ref="G17:L17" si="45">G4/F4-1</f>
@@ -1812,7 +1812,7 @@
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U17" s="7">
         <v>0.01</v>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="18" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F18" s="5">
         <f>F11/F10</f>
@@ -1865,7 +1865,7 @@
         <v>0.21</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U18" s="7">
         <v>7.4999999999999997E-2</v>
@@ -1875,7 +1875,7 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="T19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U19" s="1">
         <f>NPV(U18,I24:XFD24)+Sheet1!D5-Sheet1!D6</f>
@@ -1884,7 +1884,7 @@
     </row>
     <row r="20" spans="1:111" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F20" s="6">
         <f>F6/F4</f>
@@ -2000,7 +2000,7 @@
         <v>9.5837445178838382E-2</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U21" s="5">
         <f>U20/Sheet1!D2-1</f>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="22" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F22" s="1">
         <v>28841</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="23" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F23" s="1">
         <v>16857</v>
@@ -2117,7 +2117,7 @@
     </row>
     <row r="24" spans="1:111" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F24" s="3">
         <f>F22-F23</f>
@@ -2600,7 +2600,7 @@
     </row>
     <row r="26" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H26" s="1">
         <f>H28-H32</f>
@@ -2657,12 +2657,12 @@
     </row>
     <row r="29" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:111" x14ac:dyDescent="0.2">
@@ -2676,7 +2676,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
